--- a/testData/conf_audit_report.xlsx
+++ b/testData/conf_audit_report.xlsx
@@ -190,10 +190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>授权</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -220,6 +216,10 @@
   </si>
   <si>
     <t>配置报表用户组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrconf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -674,7 +674,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -732,10 +732,10 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="6" t="s">
@@ -753,16 +753,16 @@
         <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="6" t="s">
@@ -782,10 +782,10 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="6" t="s">
@@ -988,7 +988,7 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1026,11 +1026,11 @@
         <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1235,7 +1235,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>0</v>
@@ -1249,7 +1249,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>38</v>
